--- a/SupplementaryData/Additional_files/mw_limma_compare/Cytokine-cytokine_receptor_interaction_terms.xlsx
+++ b/SupplementaryData/Additional_files/mw_limma_compare/Cytokine-cytokine_receptor_interaction_terms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrbai\Desktop\mog_demo\mw_limma_compare5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\COVID-DEA\SupplementaryData\Additional_files\mw_limma_compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F76F09A-431B-4C0F-B738-10DEF03A3BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC13DD46-FCE0-4B08-B8C5-9E8D76F43807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MW_C-c_receptor_GTEx" sheetId="1" r:id="rId1"/>
@@ -973,13 +973,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="96.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
@@ -1021,7 +1022,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -1030,33 +1031,33 @@
         <v>262</v>
       </c>
       <c r="D2">
-        <v>-0.27861955948579697</v>
+        <v>0.43220992208559</v>
       </c>
       <c r="E2">
-        <v>-1.2902998207712899</v>
+        <v>1.77404652291609</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G2">
-        <v>0.21195365982095801</v>
+        <v>4.7201618341200296E-3</v>
       </c>
       <c r="H2">
-        <v>0.187771957539979</v>
+        <v>3.4564114117126101E-3</v>
       </c>
       <c r="I2">
-        <v>1848</v>
+        <v>2367</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>27</v>
@@ -1065,33 +1066,33 @@
         <v>262</v>
       </c>
       <c r="D3">
-        <v>0.53552121949971299</v>
+        <v>0.47909515046400603</v>
       </c>
       <c r="E3">
-        <v>1.91092898688381</v>
+        <v>1.63037414493775</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="G3">
-        <v>8.2855157862234009E-3</v>
+        <v>5.1764327626396597E-3</v>
       </c>
       <c r="H3">
-        <v>6.6089109246110197E-3</v>
+        <v>3.92589866274077E-3</v>
       </c>
       <c r="I3">
-        <v>2020</v>
+        <v>1945</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -1100,33 +1101,33 @@
         <v>262</v>
       </c>
       <c r="D4">
-        <v>0.410620064629791</v>
+        <v>0.403327694706484</v>
       </c>
       <c r="E4">
-        <v>1.31478859650821</v>
+        <v>1.5946178255293999</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="G4">
-        <v>0.172874303738004</v>
+        <v>8.0975732428014598E-3</v>
       </c>
       <c r="H4">
-        <v>0.15710708218099101</v>
+        <v>6.7501836447020997E-3</v>
       </c>
       <c r="I4">
-        <v>2763</v>
+        <v>2736</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>27</v>
@@ -1135,33 +1136,33 @@
         <v>262</v>
       </c>
       <c r="D5">
-        <v>0.4059873371885</v>
+        <v>0.53552121949971299</v>
       </c>
       <c r="E5">
-        <v>1.5076741741237101</v>
+        <v>1.91092898688381</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G5">
-        <v>4.0595057992939998E-2</v>
+        <v>8.2855157862234009E-3</v>
       </c>
       <c r="H5">
-        <v>3.6892533906627403E-2</v>
+        <v>6.6089109246110197E-3</v>
       </c>
       <c r="I5">
-        <v>2187</v>
+        <v>2020</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>27</v>
@@ -1170,33 +1171,33 @@
         <v>262</v>
       </c>
       <c r="D6">
-        <v>0.43220992208559</v>
+        <v>0.42316300876714402</v>
       </c>
       <c r="E6">
-        <v>1.77404652291609</v>
+        <v>1.7234328180935199</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G6">
-        <v>4.7201618341200296E-3</v>
+        <v>1.0024906600249101E-2</v>
       </c>
       <c r="H6">
-        <v>3.4564114117126101E-3</v>
+        <v>9.04502851150292E-3</v>
       </c>
       <c r="I6">
-        <v>2367</v>
+        <v>2622</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>27</v>
@@ -1205,33 +1206,33 @@
         <v>262</v>
       </c>
       <c r="D7">
-        <v>0.47909515046400603</v>
+        <v>0.4059873371885</v>
       </c>
       <c r="E7">
-        <v>1.63037414493775</v>
+        <v>1.5076741741237101</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="G7">
-        <v>5.1764327626396597E-3</v>
+        <v>4.0595057992939998E-2</v>
       </c>
       <c r="H7">
-        <v>3.92589866274077E-3</v>
+        <v>3.6892533906627403E-2</v>
       </c>
       <c r="I7">
-        <v>1945</v>
+        <v>2187</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>27</v>
@@ -1240,33 +1241,33 @@
         <v>262</v>
       </c>
       <c r="D8">
-        <v>0.28925813998553901</v>
+        <v>0.31476201145647498</v>
       </c>
       <c r="E8">
-        <v>1.21575012945322</v>
+        <v>1.3965851209725499</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G8">
-        <v>0.27670042375924703</v>
+        <v>8.2733812949640301E-2</v>
       </c>
       <c r="H8">
-        <v>0.218899975644779</v>
+        <v>7.6269811218694195E-2</v>
       </c>
       <c r="I8">
-        <v>2797</v>
+        <v>1937</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
@@ -1275,33 +1276,33 @@
         <v>262</v>
       </c>
       <c r="D9">
-        <v>0.42316300876714402</v>
+        <v>-0.34755706688854099</v>
       </c>
       <c r="E9">
-        <v>1.7234328180935199</v>
+        <v>-1.3963329172957699</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="G9">
-        <v>1.0024906600249101E-2</v>
+        <v>8.79426223668274E-2</v>
       </c>
       <c r="H9">
-        <v>9.04502851150292E-3</v>
+        <v>7.5609381113029103E-2</v>
       </c>
       <c r="I9">
-        <v>2622</v>
+        <v>1669</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>27</v>
@@ -1310,33 +1311,33 @@
         <v>262</v>
       </c>
       <c r="D10">
-        <v>0.31476201145647498</v>
+        <v>0.410620064629791</v>
       </c>
       <c r="E10">
-        <v>1.3965851209725499</v>
+        <v>1.31478859650821</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="G10">
-        <v>8.2733812949640301E-2</v>
+        <v>0.172874303738004</v>
       </c>
       <c r="H10">
-        <v>7.6269811218694195E-2</v>
+        <v>0.15710708218099101</v>
       </c>
       <c r="I10">
-        <v>1937</v>
+        <v>2763</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>27</v>
@@ -1345,33 +1346,33 @@
         <v>262</v>
       </c>
       <c r="D11">
-        <v>-0.34755706688854099</v>
+        <v>-0.27861955948579697</v>
       </c>
       <c r="E11">
-        <v>-1.3963329172957699</v>
+        <v>-1.2902998207712899</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="G11">
-        <v>8.79426223668274E-2</v>
+        <v>0.21195365982095801</v>
       </c>
       <c r="H11">
-        <v>7.5609381113029103E-2</v>
+        <v>0.187771957539979</v>
       </c>
       <c r="I11">
-        <v>1669</v>
+        <v>1848</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>27</v>
@@ -1380,32 +1381,36 @@
         <v>262</v>
       </c>
       <c r="D12">
-        <v>0.403327694706484</v>
+        <v>0.28925813998553901</v>
       </c>
       <c r="E12">
-        <v>1.5946178255293999</v>
+        <v>1.21575012945322</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="G12">
-        <v>8.0975732428014598E-3</v>
+        <v>0.27670042375924703</v>
       </c>
       <c r="H12">
-        <v>6.7501836447020997E-3</v>
+        <v>0.218899975644779</v>
       </c>
       <c r="I12">
-        <v>2736</v>
+        <v>2797</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K12" xr:uid="{8C4E1AAD-B115-4146-AA48-3E13C20A816D}"/>
+  <autoFilter ref="A1:K12" xr:uid="{8C4E1AAD-B115-4146-AA48-3E13C20A816D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K12">
+      <sortCondition ref="G2:G12"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1415,10 +1420,13 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2434,11 +2442,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF877FE-BB4F-44BA-839A-43D1CA761783}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="48.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
